--- a/data/trans_orig/Q61A-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q61A-Estudios-trans_orig.xlsx
@@ -669,7 +669,7 @@
         <v>23.85644010801533</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>23.87081972772334</v>
+        <v>23.87081972772335</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>6.500070491971599</v>
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>6.293118142614851</v>
+        <v>6.197331101111176</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>16.09710653639493</v>
+        <v>16.06112212078169</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>20.06808152646743</v>
+        <v>20.21705147897274</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>15.0872228535854</v>
+        <v>16.13264898542671</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>5.042399618483244</v>
+        <v>5.133851288317151</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>17.57262928592271</v>
+        <v>17.5006489307955</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>17.06596514444007</v>
+        <v>17.25758563694889</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>22.78240044071289</v>
+        <v>21.98524813307224</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>6.13650697674753</v>
+        <v>6.08180356831591</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>17.37658173253985</v>
+        <v>17.33881120340499</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>19.72051938427917</v>
+        <v>19.70990026048803</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>21.18133335954502</v>
+        <v>20.67284469961674</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>10.15146875029644</v>
+        <v>10.200662373669</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>20.99889558672337</v>
+        <v>20.8505751934316</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>28.36831432156266</v>
+        <v>28.46542574004514</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>39.14251107473484</v>
+        <v>39.74937068116414</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>8.25409640708151</v>
+        <v>8.159593089008402</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>26.1748905520902</v>
+        <v>26.77353204692352</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>26.06034720886019</v>
+        <v>25.77026051335972</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>45.51206738284177</v>
+        <v>44.47408398264835</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>8.850423175834234</v>
+        <v>8.936953753378965</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>22.11876108288115</v>
+        <v>22.08466487866278</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>25.45149956178002</v>
+        <v>25.37407619012775</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>37.67604312095693</v>
+        <v>35.84498553113218</v>
       </c>
     </row>
     <row r="7">
@@ -805,7 +805,7 @@
         <v>19.02626989237609</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>19.68724465734669</v>
+        <v>19.68724465734667</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>7.649963383972572</v>
@@ -817,7 +817,7 @@
         <v>23.92346523508022</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>22.65844471861398</v>
+        <v>22.65844471861399</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>6.468429725337653</v>
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>3.934051464198134</v>
+        <v>3.946294417424027</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>12.16452762409073</v>
+        <v>12.21579343070482</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>17.06822025297879</v>
+        <v>17.17719786223439</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>16.56466628098302</v>
+        <v>16.28815786425476</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>6.127949363356567</v>
+        <v>6.192204221229112</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>15.52105804094007</v>
+        <v>15.44961225774997</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>21.24055658125544</v>
+        <v>21.41963443049099</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>19.29524718393651</v>
+        <v>19.39029718464327</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>5.357743115208641</v>
+        <v>5.357074019325559</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>14.01842976474759</v>
+        <v>14.08476927568372</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>19.77073767443951</v>
+        <v>19.74436702618195</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>19.00552634989617</v>
+        <v>18.8648646954298</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>9.735891382889653</v>
+        <v>9.510290358972847</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>15.71944491730956</v>
+        <v>15.65554290132842</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>20.88364084466757</v>
+        <v>21.13837525620226</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>24.20821785832535</v>
+        <v>23.83682281858662</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>10.36461458026066</v>
+        <v>10.55901242170626</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>21.229461160833</v>
+        <v>21.58155666843412</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>27.26833663840204</v>
+        <v>27.10631963696083</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>26.67382845897729</v>
+        <v>26.80105227594857</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>8.650383921494829</v>
+        <v>8.756546594435486</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>17.22804214668843</v>
+        <v>17.41686804677851</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>23.59143117648006</v>
+        <v>23.42115798611092</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>24.30525696007527</v>
+        <v>24.33297901027742</v>
       </c>
     </row>
     <row r="10">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>2.968699687451639</v>
+        <v>2.962950148048258</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>11.3110925448339</v>
+        <v>11.22577567738689</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>11.65699888552875</v>
+        <v>11.79863328996637</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>12.67570575218442</v>
+        <v>12.61859951644877</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>3.787331700629905</v>
+        <v>3.713090191174361</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>12.05785568039702</v>
+        <v>12.16959056025603</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>14.82707145342128</v>
+        <v>14.7887451828102</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>15.11297955196729</v>
+        <v>15.63843031266402</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>3.932330669840501</v>
+        <v>4.012580375842593</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>12.44275126876354</v>
+        <v>12.30980317019868</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>14.39818027994783</v>
+        <v>14.60509634907839</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>15.41991908558857</v>
+        <v>15.70341969163828</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>7.272463700117274</v>
+        <v>7.478516428500028</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>20.14706491025743</v>
+        <v>20.60066375765479</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>20.1535147769276</v>
+        <v>20.13724070841902</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>29.85926434059019</v>
+        <v>29.74335063287484</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>32.76874157047865</v>
+        <v>38.44350215331128</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>20.31021559774858</v>
+        <v>19.92764366659017</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>24.32850411462005</v>
+        <v>24.46140934099995</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>29.03372717152146</v>
+        <v>29.87617072166316</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>24.76750355367121</v>
+        <v>24.18149382317737</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>18.37767351051292</v>
+        <v>18.00194642259024</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>20.90757161873278</v>
+        <v>21.49023056758071</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>25.97354483380315</v>
+        <v>26.23498820389462</v>
       </c>
     </row>
     <row r="13">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>5.089061163832629</v>
+        <v>5.023292403079854</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>13.81245649263157</v>
+        <v>13.79811442883803</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>18.0234990374301</v>
+        <v>18.10749792576226</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>17.47423101930758</v>
+        <v>17.27491113548475</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>6.206637117195412</v>
+        <v>6.229717429485234</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>16.33764490731746</v>
+        <v>16.4300368162188</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>20.65699338856552</v>
+        <v>20.5319298875602</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>20.57232623955445</v>
+        <v>20.51786854675148</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>5.973077928389648</v>
+        <v>5.921954389425972</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>15.25635689441921</v>
+        <v>15.1940000785979</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>19.64012935272154</v>
+        <v>19.80847596890101</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>19.93657824833359</v>
+        <v>19.84986192371124</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>8.308414157925231</v>
+        <v>8.569918593295595</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>16.55692559116205</v>
+        <v>16.92451240969694</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>21.48577406683637</v>
+        <v>21.6502154242999</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>24.10232546843733</v>
+        <v>23.9269616570053</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>11.00145891871105</v>
+        <v>10.99876297603831</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>20.67162350612848</v>
+        <v>20.6143978051199</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>25.33570200281716</v>
+        <v>25.18571023411459</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>26.89863082124538</v>
+        <v>27.02535408137672</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>8.710525281782676</v>
+        <v>8.78283494484228</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>17.70501729894071</v>
+        <v>17.58347365994428</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>22.49781884871673</v>
+        <v>22.48257887941996</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>24.76330754189146</v>
+        <v>24.36517321815082</v>
       </c>
     </row>
     <row r="16">
